--- a/atleti.xlsx
+++ b/atleti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\karate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enrico\Documents\git-hub\karate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0AB216-DE24-4D40-B0F8-2CACBE3CB1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E583322-DB54-49B2-86A5-088B42D6A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,23 +1110,23 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
